--- a/inst/extdata/Minimal_experiment.xlsx
+++ b/inst/extdata/Minimal_experiment.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rupert/Dropbox/Projects/Rtrack/Rtrack_dev/Rtrack/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8658ADC8-7CCF-CE4F-952D-4E5E45AF9496}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="39000" windowHeight="22200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HE_experiment.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>_Arena</t>
   </si>
@@ -42,12 +48,6 @@
     <t>_Trial</t>
   </si>
   <si>
-    <t>ethovision.3.csv</t>
-  </si>
-  <si>
-    <t>Arena_SW.txt</t>
-  </si>
-  <si>
     <t>_Day</t>
   </si>
   <si>
@@ -61,12 +61,21 @@
   </si>
   <si>
     <t>_TrackFileFormat</t>
+  </si>
+  <si>
+    <t>Track_1.tab</t>
+  </si>
+  <si>
+    <t>Arena.txt</t>
+  </si>
+  <si>
+    <t>raw.tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -288,6 +297,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -612,21 +629,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -634,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -643,21 +660,21 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -669,14 +686,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2" si="0">A2&amp;".csv"</f>
-        <v>Track_1.csv</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
